--- a/UrbanLeague/NRTC/NRTC 2019 Report.xlsx
+++ b/UrbanLeague/NRTC/NRTC 2019 Report.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="154">
   <si>
     <t>Urban League of Essex County</t>
   </si>
@@ -310,33 +310,9 @@
     <t>Ordinary Income/Expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">   Income</t>
-  </si>
-  <si>
     <t>-Split-</t>
   </si>
   <si>
-    <t xml:space="preserve">      4500 Revenue from Government Grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         4530 State Grants</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>1100 Accounts/ Contributions Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Total for 4530 State Grants</t>
-  </si>
-  <si>
-    <t>Local Initiatives Support Corp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Total for Income</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Expenses</t>
   </si>
   <si>
@@ -346,60 +322,9 @@
     <t xml:space="preserve">      7200 Salaries &amp; Related Expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">         7240 Employee Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            7244 Employee Contrib - Health</t>
-  </si>
-  <si>
-    <t>Employee Medical Contrib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Total for 7244 Employee Contrib - Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            7247 Emp-ee Contrib -Dental</t>
-  </si>
-  <si>
-    <t>Employee Dental Contrib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Total for 7247 Emp-ee Contrib -Dental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Total for 7240 Employee Benefits</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Total for 7200 Salaries &amp; Related Expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">      7500 Contract Service Expenses</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         7560 Professional fees - other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Total for 7560 Professional fees - other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Total for 7500 Contract Service Expenses</t>
-  </si>
-  <si>
-    <t>2150 Credit Cards:Visa Card-8978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      8500 Other Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         8580 Licenses &amp; Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Total for 8580 Licenses &amp; Fees</t>
-  </si>
-  <si>
     <t xml:space="preserve">      8600 Housing Development</t>
   </si>
   <si>
@@ -412,9 +337,6 @@
     <t>334 NRTC 2018 Grant</t>
   </si>
   <si>
-    <t>06 NRTC 16:513 Central Ave</t>
-  </si>
-  <si>
     <t xml:space="preserve">         8605 Holding Cost</t>
   </si>
   <si>
@@ -427,15 +349,6 @@
     <t xml:space="preserve">            Total for 8606 Property Taxes</t>
   </si>
   <si>
-    <t xml:space="preserve">            8606.2 Repairs</t>
-  </si>
-  <si>
-    <t>04 ULEC Projects:479 So 14th St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Total for 8606.2 Repairs</t>
-  </si>
-  <si>
     <t xml:space="preserve">            8606.3 Utilities</t>
   </si>
   <si>
@@ -445,12 +358,6 @@
     <t xml:space="preserve">            Total for 8606.3 Utilities</t>
   </si>
   <si>
-    <t xml:space="preserve">            8606.4 Interest Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Total for 8606.4 Interest Exp</t>
-  </si>
-  <si>
     <t xml:space="preserve">            8606.6 Water</t>
   </si>
   <si>
@@ -469,160 +376,124 @@
     <t>Net Income</t>
   </si>
   <si>
-    <t>10/24/2019</t>
-  </si>
-  <si>
-    <t>Grants/Contracts:NRTC:State of NJ NRTC - 2018</t>
-  </si>
-  <si>
-    <t>To record receivable from January 2018 - Sept Invoice 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Total for 4500 Revenue from Government Grants</t>
-  </si>
-  <si>
-    <t>10/10/2019</t>
-  </si>
-  <si>
-    <t>2019132030481</t>
-  </si>
-  <si>
-    <t>Passaic Valley Sewerage Commission</t>
-  </si>
-  <si>
-    <t>Construction Costs: Sewer Application Fees/Permit 231 Fairmount Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Total for 8500 Other Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            8606.1 Property Insurance</t>
-  </si>
-  <si>
-    <t>CP 164 3606B</t>
-  </si>
-  <si>
-    <t>Massey Insurance Agency</t>
-  </si>
-  <si>
-    <t>Property &amp; Liability Insurance - 6 mos Premium October 2019 - July 2020 - 204 South 6th Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Total for 8606.1 Property Insurance</t>
-  </si>
-  <si>
-    <t>10/09/2019</t>
-  </si>
-  <si>
-    <t>10.09.19PP</t>
-  </si>
-  <si>
-    <t>Petty Cash</t>
-  </si>
-  <si>
-    <t>Cleanup Lots on Fairmount Ave.</t>
-  </si>
-  <si>
-    <t>Water Expense 231 Fairmount Ave. Sept 2019</t>
-  </si>
-  <si>
-    <t>10/01/2019</t>
-  </si>
-  <si>
-    <t>10.01.19_231</t>
-  </si>
-  <si>
-    <t>Construction Loan Interest  Oct 2019 231 Fairmount Ave</t>
-  </si>
-  <si>
-    <t>10.01.19_204</t>
-  </si>
-  <si>
-    <t>Construction Loan Interest Oct 2019 204 S 6th Street</t>
-  </si>
-  <si>
-    <t>19-113</t>
-  </si>
-  <si>
-    <t>To reconcile balance to statement</t>
-  </si>
-  <si>
-    <t>City of Newark Water: 204 S 6th Street  Sept  2019</t>
-  </si>
-  <si>
-    <t>11/25/2019</t>
-  </si>
-  <si>
-    <t>AIA PRODUCTS / DUES</t>
-  </si>
-  <si>
-    <t>11/01/2019</t>
-  </si>
-  <si>
-    <t>103962_2019Q4</t>
-  </si>
-  <si>
-    <t>231 Fairmount Ave - 2019 Q4 R.E Taxes</t>
-  </si>
-  <si>
-    <t>11/06/2019</t>
-  </si>
-  <si>
-    <t>Water Expense 231 Fairmount Ave. Oct  2019</t>
-  </si>
-  <si>
-    <t>603805565118</t>
-  </si>
-  <si>
-    <t>Electric Charges - 204 S. 6th St - 09/17/19 - 10/15/19</t>
-  </si>
-  <si>
-    <t>600906220639</t>
-  </si>
-  <si>
-    <t>Acct #73 484 776 07 231 Fairmount Ave  09/17/19 - 10/17/19</t>
-  </si>
-  <si>
-    <t>12/05/2019</t>
-  </si>
-  <si>
-    <t>Water Expense 231 Fairmount Ave. Nov  2019</t>
-  </si>
-  <si>
-    <t>605105022972</t>
-  </si>
-  <si>
-    <t>Acct #73 484 776 07 231 Fairmount Ave  10/16/19 - 11/13/19</t>
-  </si>
-  <si>
-    <t>Water Expense 479 S 14th St. Nov  2019</t>
-  </si>
-  <si>
-    <t>603006591409</t>
-  </si>
-  <si>
-    <t>Electric Charges - 204 S. 6th St - 10/16/19 - 11/13/19</t>
-  </si>
-  <si>
-    <t>11.01.19_13410</t>
-  </si>
-  <si>
-    <t>Construction Loan Interest             231 Fairmount Ave</t>
-  </si>
-  <si>
-    <t>11.01.19_13411</t>
-  </si>
-  <si>
-    <t>Construction Loan Interest                204 S 6th Street</t>
-  </si>
-  <si>
-    <t>City of Newark Water: 204 S 6th St  Oct  2019</t>
-  </si>
-  <si>
-    <t>City of Newark Water: 204 S 6th St  Nov 2019</t>
-  </si>
-  <si>
-    <t>Sunday, Feb 16, 2020 09:57:49 AM GMT-8 - Cash Basis</t>
+    <t>January - March, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7220 Salaries &amp; Wages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            7222 Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               7222l Housing Counselor</t>
+  </si>
+  <si>
+    <t>03/06/2020</t>
+  </si>
+  <si>
+    <t>LINDSEY, VICTORIA A Payroll Period 02/16/20 � 02/29/20</t>
+  </si>
+  <si>
+    <t>03/20/2020</t>
+  </si>
+  <si>
+    <t>LINDSEY, VICTORIA A Payroll Period 03/01/20 � 03/14/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Total for 7222l Housing Counselor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Total for 7222 Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for 7220 Salaries &amp; Wages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         7250 Payroll Taxes, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            7251 Social Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Total for 7251 Social Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for 7250 Payroll Taxes, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         8602 Rehab of Existing Facility</t>
+  </si>
+  <si>
+    <t>01/24/2020</t>
+  </si>
+  <si>
+    <t>Homework Construction</t>
+  </si>
+  <si>
+    <t>Mobilization for first stage of construction (i.e. demo/removal, chimney demo, roofing and gutters, siding and windows) on rehabilitation project.</t>
+  </si>
+  <si>
+    <t>02/29/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for 8602 Rehab of Existing Facility</t>
+  </si>
+  <si>
+    <t>01/15/2020</t>
+  </si>
+  <si>
+    <t>103962-2020Q1</t>
+  </si>
+  <si>
+    <t>231 Fairmount Ave - 2020 Q1 Real Estate Taxes</t>
+  </si>
+  <si>
+    <t>01/21/2020</t>
+  </si>
+  <si>
+    <t>605604415102</t>
+  </si>
+  <si>
+    <t>Acct #73 484 776 07 231 Fairmount Ave  12/17/19 - 01/16/20</t>
+  </si>
+  <si>
+    <t>Water Expense 231 Fairmount Ave.  Jan 2020</t>
+  </si>
+  <si>
+    <t>603305902559</t>
+  </si>
+  <si>
+    <t>Electric Charges - 204 S. 6th St - 12/17/19 - 01/17/20</t>
+  </si>
+  <si>
+    <t>02/19/2020</t>
+  </si>
+  <si>
+    <t>601606298152</t>
+  </si>
+  <si>
+    <t>Acct #73 484 776 07 231 Fairmount Ave  01/17/20 - 02/14/20</t>
+  </si>
+  <si>
+    <t>601606298137</t>
+  </si>
+  <si>
+    <t>Electric Charges - 204 S. 6th St - 01/17/20 - 02/14/20</t>
+  </si>
+  <si>
+    <t>02/21/2020</t>
+  </si>
+  <si>
+    <t>Water Expense 231 Fairmount Ave.Feb 2020</t>
+  </si>
+  <si>
+    <t>City of Newark Water: 204 S 6th St  Jan 2020</t>
+  </si>
+  <si>
+    <t>City of Newark Water: 204 S 6th St  Feb 2020</t>
+  </si>
+  <si>
+    <t>Friday, Apr 03, 2020 07:49:25 AM GMT-7 - Accrual Basis</t>
   </si>
 </sst>
 </file>
@@ -637,7 +508,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;* #,##0.00\ _€"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -699,40 +570,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -865,7 +702,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -932,26 +769,8 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="7" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -965,14 +784,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1323,68 +1136,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
@@ -1885,43 +1698,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
@@ -2345,17 +2158,17 @@
       <c r="I38" s="27"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2374,7 +2187,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2401,68 +2214,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="35"/>
@@ -2534,21 +2347,23 @@
         <v>2961.15</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="36">
+        <v>991.24</v>
+      </c>
       <c r="G9" s="4">
         <f>E9+'Qrt 3 2019'!G9</f>
-        <v>9307.2800000000007</v>
+        <v>10298.52</v>
       </c>
       <c r="I9" s="1">
         <v>10000</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ref="K9:K12" si="0">+I9-G9</f>
-        <v>692.71999999999935</v>
+        <v>-298.52000000000044</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" ref="M9:M12" si="1">G9/I9</f>
-        <v>0.93072800000000011</v>
+        <v>1.029852</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -2597,21 +2412,23 @@
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="43"/>
+      <c r="E11" s="36">
+        <v>127.79</v>
+      </c>
       <c r="G11" s="4">
         <f>E11+'Qrt 3 2019'!G11</f>
-        <v>0</v>
+        <v>127.79</v>
       </c>
       <c r="I11" s="1">
         <v>23398.75</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>23398.75</v>
+        <v>23270.959999999999</v>
       </c>
       <c r="M11" s="13">
         <f>G11/I11</f>
-        <v>0</v>
+        <v>5.4614028527164918E-3</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -2659,11 +2476,11 @@
       <c r="D13" s="10"/>
       <c r="E13" s="31">
         <f>SUM(E9:E12)</f>
-        <v>0</v>
+        <v>1119.03</v>
       </c>
       <c r="G13" s="11">
         <f>SUM(G9:G12)</f>
-        <v>10703.372500000001</v>
+        <v>11822.402500000002</v>
       </c>
       <c r="I13" s="11">
         <f>SUM(I9:I12)</f>
@@ -2671,7 +2488,7 @@
       </c>
       <c r="K13" s="11">
         <f>SUM(K9:K12)</f>
-        <v>30507.877499999999</v>
+        <v>29388.8475</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -2893,12 +2710,12 @@
       <c r="D24" s="15"/>
       <c r="E24" s="32">
         <f>E13+E20</f>
-        <v>0</v>
+        <v>1119.03</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15">
         <f>G13+G20</f>
-        <v>151352.5925</v>
+        <v>152471.6225</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="15">
@@ -2908,7 +2725,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="15">
         <f>K13+K20</f>
-        <v>98647.407500000001</v>
+        <v>97528.377500000002</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -2954,1311 +2771,771 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="12" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" style="36" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="36" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="36" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="81.6328125" style="36" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="34.36328125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="36" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="36"/>
+    <col min="1" max="1" width="43.81640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="37" customWidth="1"/>
+    <col min="3" max="4" width="12" style="37" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="86.81640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="18.90625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="37" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" style="37" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="A3" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.35">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="24">
+        <v>312</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="J12" s="25">
+        <v>450</v>
+      </c>
+      <c r="K12" s="25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="24">
+        <v>313</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="25">
+        <v>450</v>
+      </c>
+      <c r="K13" s="25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="27">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="27">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="27">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="24">
+        <v>312</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="25">
+        <v>45.62</v>
+      </c>
+      <c r="K19" s="25">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="24">
+        <v>313</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="25">
+        <v>45.62</v>
+      </c>
+      <c r="K20" s="25">
+        <v>91.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="27">
+        <v>91.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="27">
+        <v>91.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="27">
+        <v>991.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="39">
-        <v>201937</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="41">
-        <v>165000</v>
-      </c>
-      <c r="K10" s="41">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="42">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="42">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="J26" s="25">
+        <v>6525</v>
+      </c>
+      <c r="K26" s="25">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="24">
+        <v>2</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="42">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="39">
-        <v>63</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="41">
-        <v>-47.04</v>
-      </c>
-      <c r="K18" s="41">
-        <v>-47.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="39">
-        <v>64</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="41">
-        <v>-57.54</v>
-      </c>
-      <c r="K19" s="41">
-        <v>-104.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="39">
-        <v>137</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="41">
-        <v>-56</v>
-      </c>
-      <c r="K20" s="41">
-        <v>-160.58000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="42">
-        <v>-160.58000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="39">
-        <v>65</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="41">
-        <v>-5.72</v>
-      </c>
-      <c r="K23" s="41">
-        <v>-5.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="39">
-        <v>66</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="41">
-        <v>-11.91</v>
-      </c>
-      <c r="K24" s="41">
-        <v>-17.63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="39">
-        <v>138</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="41">
-        <v>-8</v>
-      </c>
-      <c r="K25" s="41">
-        <v>-25.63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="42">
-        <v>-25.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="42">
-        <v>-186.21</v>
+      <c r="H27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="25">
+        <v>7488.57</v>
+      </c>
+      <c r="K27" s="25">
+        <v>14013.57</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="27">
+        <v>14013.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" s="25">
+        <v>1610.65</v>
+      </c>
+      <c r="K31" s="25">
+        <v>1610.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="27">
+        <v>1610.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="25">
+        <v>19.05</v>
+      </c>
+      <c r="K34" s="25">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="24">
+        <v>11593900</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="25">
+        <v>38.68</v>
+      </c>
+      <c r="K35" s="25">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="25">
+        <v>3.04</v>
+      </c>
+      <c r="K36" s="25">
+        <v>60.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="25">
+        <v>14.41</v>
+      </c>
+      <c r="K37" s="25">
+        <v>75.180000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="25">
+        <v>12.18</v>
+      </c>
+      <c r="K38" s="25">
+        <v>87.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="24">
+        <v>11660649</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" s="25">
+        <v>40.43</v>
+      </c>
+      <c r="K39" s="25">
+        <v>127.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="27">
+        <v>127.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="24">
+        <v>11593515</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42" s="25">
+        <v>9.67</v>
+      </c>
+      <c r="K42" s="25">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B43" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="24">
+        <v>11631777</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="25">
+        <v>40.43</v>
+      </c>
+      <c r="K43" s="25">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="27">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="27">
+        <v>1788.54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="27">
+        <v>15802.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="42">
-        <v>-186.21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
+      <c r="J47" s="27">
+        <v>16793.349999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="J31" s="41">
-        <v>32.99</v>
-      </c>
-      <c r="K31" s="41">
-        <v>32.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="41">
-        <v>32.99</v>
-      </c>
-      <c r="K32" s="41">
-        <v>65.98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="41">
-        <v>32.99</v>
-      </c>
-      <c r="K33" s="41">
-        <v>98.97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="J34" s="42">
-        <v>98.97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35" s="42">
-        <v>98.97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" s="41">
-        <v>994.75</v>
-      </c>
-      <c r="K38" s="41">
-        <v>994.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="J39" s="42">
-        <v>994.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="38" t="s">
+      <c r="J48" s="27">
+        <v>-16793.349999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="J40" s="42">
-        <v>994.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J44" s="41">
-        <v>1629.48</v>
-      </c>
-      <c r="K44" s="41">
-        <v>1629.48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="J45" s="42">
-        <v>1629.48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" s="41">
-        <v>1660.46</v>
-      </c>
-      <c r="K47" s="41">
-        <v>1660.46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="J48" s="42">
-        <v>1660.46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="41">
-        <v>80</v>
-      </c>
-      <c r="K50" s="41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="J51" s="42">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="39">
-        <v>11441444</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" s="41">
-        <v>39.26</v>
-      </c>
-      <c r="K53" s="41">
-        <v>39.26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="39">
-        <v>11480383</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J54" s="41">
-        <v>38.68</v>
-      </c>
-      <c r="K54" s="41">
-        <v>77.94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B55" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J55" s="41">
-        <v>15.94</v>
-      </c>
-      <c r="K55" s="41">
-        <v>93.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="I56" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J56" s="41">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="K56" s="41">
-        <v>110.21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B57" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="39">
-        <v>11517434</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J57" s="41">
-        <v>38.68</v>
-      </c>
-      <c r="K57" s="41">
-        <v>148.88999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B58" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J58" s="41">
-        <v>21.11</v>
-      </c>
-      <c r="K58" s="41">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B59" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="39">
-        <v>11514530</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I59" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J59" s="41">
-        <v>38.68</v>
-      </c>
-      <c r="K59" s="41">
-        <v>208.68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="41">
-        <v>7.31</v>
-      </c>
-      <c r="K60" s="41">
-        <v>215.99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J61" s="42">
-        <v>215.99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H63" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J63" s="41">
-        <v>10.41</v>
-      </c>
-      <c r="K63" s="41">
-        <v>10.41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J64" s="41">
-        <v>10.41</v>
-      </c>
-      <c r="K64" s="41">
-        <v>20.82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B65" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J65" s="41">
-        <v>12466.42</v>
-      </c>
-      <c r="K65" s="41">
-        <v>12487.24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B66" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H66" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J66" s="41">
-        <v>10.41</v>
-      </c>
-      <c r="K66" s="41">
-        <v>12497.65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B67" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H67" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J67" s="41">
-        <v>10.41</v>
-      </c>
-      <c r="K67" s="41">
-        <v>12508.06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="J68" s="42">
-        <v>12508.06</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="39">
-        <v>11441076</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J70" s="41">
-        <v>36.26</v>
-      </c>
-      <c r="K70" s="41">
-        <v>36.26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B71" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="39">
-        <v>11480014</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J71" s="41">
-        <v>41.73</v>
-      </c>
-      <c r="K71" s="41">
-        <v>77.989999999999995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="39">
-        <v>11517051</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H72" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="I72" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J72" s="41">
-        <v>38.68</v>
-      </c>
-      <c r="K72" s="41">
-        <v>116.67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="J73" s="42">
-        <v>116.67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="J74" s="42">
-        <v>16210.66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="J75" s="42">
-        <v>16210.66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="J76" s="42">
-        <v>17118.169999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="J77" s="42">
-        <v>147881.82999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="A51:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
